--- a/新冠状病毒肺炎.xlsx
+++ b/新冠状病毒肺炎.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C66A213-D7B2-4CEB-8459-10F3EB4BC75E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDF3BA5-2773-499A-AB4A-465A438789AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>出院</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>2.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,9 +290,9 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>全国!$B$3:$B$23</c:f>
+              <c:f>全国!$B$3:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -343,16 +355,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>全国!$C$3:$C$23</c:f>
+              <c:f>全国!$C$3:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>77</c:v>
                 </c:pt>
@@ -415,6 +430,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2478</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,9 +542,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>全国!$B$3:$B$23</c:f>
+              <c:f>全国!$B$3:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -589,16 +607,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全国!$C$3:$C$23</c:f>
+              <c:f>全国!$C$3:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>77</c:v>
                 </c:pt>
@@ -661,6 +691,18 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2478</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15152</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5090</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,9 +733,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>全国!$B$3:$B$23</c:f>
+              <c:f>全国!$B$3:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -756,16 +798,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全国!$D$3:$D$23</c:f>
+              <c:f>全国!$D$3:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>27</c:v>
                 </c:pt>
@@ -828,6 +882,18 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3342</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2807</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -858,9 +924,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>全国!$B$3:$B$23</c:f>
+              <c:f>全国!$B$3:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -923,16 +989,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全国!$E$3:$E$23</c:f>
+              <c:f>全国!$E$3:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="1">
                   <c:v>102</c:v>
                 </c:pt>
@@ -988,6 +1066,18 @@
                   <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2174</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>849</c:v>
                 </c:pt>
               </c:numCache>
@@ -1019,9 +1109,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>全国!$B$3:$B$23</c:f>
+              <c:f>全国!$B$3:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -1084,16 +1174,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全国!$F$3:$F$23</c:f>
+              <c:f>全国!$F$3:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1153,6 +1255,18 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,9 +1393,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>全国!$B$3:$B$23</c:f>
+              <c:f>全国!$B$3:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -1344,16 +1458,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全国!$C$3:$C$23</c:f>
+              <c:f>全国!$C$3:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>77</c:v>
                 </c:pt>
@@ -1416,6 +1542,18 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2478</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15152</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5090</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,9 +1602,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>全国!$B$3:$B$23</c:f>
+              <c:f>全国!$B$3:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -1529,16 +1667,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全国!$D$3:$D$23</c:f>
+              <c:f>全国!$D$3:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>27</c:v>
                 </c:pt>
@@ -1601,6 +1751,18 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3342</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2807</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,9 +1790,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>全国!$B$3:$B$23</c:f>
+              <c:f>全国!$B$3:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -1693,16 +1855,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全国!$E$3:$E$23</c:f>
+              <c:f>全国!$E$3:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="1">
                   <c:v>102</c:v>
                 </c:pt>
@@ -1758,6 +1932,18 @@
                   <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2174</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>849</c:v>
                 </c:pt>
               </c:numCache>
@@ -1786,9 +1972,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>全国!$B$3:$B$23</c:f>
+              <c:f>全国!$B$3:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -1851,16 +2037,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全国!$F$3:$F$23</c:f>
+              <c:f>全国!$F$3:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1920,6 +2118,18 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2064,8 +2274,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.12715346902391919"/>
-                  <c:y val="-0.35523200224971879"/>
+                  <c:x val="9.1351953647303516E-2"/>
+                  <c:y val="-0.40381496062992128"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2073,9 +2283,9 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>全国!$B$3:$B$23</c:f>
+              <c:f>全国!$B$3:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -2138,16 +2348,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>全国!$C$3:$C$23</c:f>
+              <c:f>全国!$C$3:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>77</c:v>
                 </c:pt>
@@ -2210,6 +2423,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2478</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2274,7 +2490,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2367,9 +2583,9 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>全国!$B$3:$B$23</c:f>
+              <c:f>全国!$B$3:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -2432,16 +2648,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>全国!$C$3:$C$23</c:f>
+              <c:f>全国!$C$3:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>77</c:v>
                 </c:pt>
@@ -2504,6 +2723,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2478</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2730,9 +2952,9 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>全国!$B$3:$B$23</c:f>
+              <c:f>全国!$B$3:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -2795,16 +3017,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>全国!$D$3:$D$23</c:f>
+              <c:f>全国!$D$3:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>27</c:v>
                 </c:pt>
@@ -2867,6 +3101,18 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3342</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2807</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3661,15 +3907,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
+      <xdr:colOff>587374</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>374649</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3703,9 +3949,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>473075</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3809,15 +4055,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>186531</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:colOff>116681</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>408781</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>6351</xdr:rowOff>
+      <xdr:colOff>338931</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4166,10 +4412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4863,6 +5109,21 @@
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C24">
+        <v>2015</v>
+      </c>
+      <c r="D24">
+        <v>3342</v>
+      </c>
+      <c r="E24">
+        <v>871</v>
+      </c>
+      <c r="F24">
+        <v>97</v>
+      </c>
+      <c r="G24">
+        <v>744</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2">
         <f>-0.0517*POWER(A24,4)+0.5234*POWER(A24,3)+13.94*POWER(A24,2)+67.487*A24+23.388</f>
@@ -4870,13 +5131,80 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>15152</v>
+      </c>
+      <c r="D25">
+        <v>2807</v>
+      </c>
+      <c r="E25">
+        <v>174</v>
+      </c>
+      <c r="F25">
+        <v>254</v>
+      </c>
+      <c r="G25">
+        <v>1171</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2">
+        <f>-0.0274*POWER(A25,4)-0.4564*POWER(A25,3)+26.665*A25*A25+8.835*A25+92.752</f>
+        <v>1181.0798000000009</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>5090</v>
+      </c>
+      <c r="D26">
+        <v>2450</v>
+      </c>
+      <c r="E26">
+        <v>2174</v>
+      </c>
+      <c r="F26">
+        <v>121</v>
+      </c>
+      <c r="G26">
+        <v>1081</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2641</v>
+      </c>
+      <c r="D27">
+        <v>2277</v>
+      </c>
+      <c r="E27">
+        <v>849</v>
+      </c>
+      <c r="F27">
+        <v>143</v>
+      </c>
+      <c r="G27">
+        <v>1373</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
@@ -4904,6 +5232,15 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4915,10 +5252,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4295A400-D455-4BFF-9D63-F95B22A15BCF}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5317,6 +5654,89 @@
         <v>427</v>
       </c>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="C24">
+        <v>1638</v>
+      </c>
+      <c r="D24">
+        <v>1685</v>
+      </c>
+      <c r="E24">
+        <v>897</v>
+      </c>
+      <c r="F24">
+        <v>94</v>
+      </c>
+      <c r="G24">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="C25">
+        <v>14840</v>
+      </c>
+      <c r="D25">
+        <v>1377</v>
+      </c>
+      <c r="F25">
+        <v>242</v>
+      </c>
+      <c r="G25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="C26">
+        <v>4823</v>
+      </c>
+      <c r="D26">
+        <v>1154</v>
+      </c>
+      <c r="F26">
+        <v>116</v>
+      </c>
+      <c r="G26">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="C27">
+        <v>2420</v>
+      </c>
+      <c r="D27">
+        <v>1216</v>
+      </c>
+      <c r="F27">
+        <v>139</v>
+      </c>
+      <c r="G27">
+        <v>912</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新冠状病毒肺炎.xlsx
+++ b/新冠状病毒肺炎.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDF3BA5-2773-499A-AB4A-465A438789AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23AF36D-D2F3-4631-9528-8662C537329A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>出院</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,22 @@
   </si>
   <si>
     <t>2.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似病例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,9 +558,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>全国!$B$3:$B$27</c:f>
+              <c:f>全国!$B$3:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -619,16 +635,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全国!$C$3:$C$27</c:f>
+              <c:f>全国!$C$3:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>77</c:v>
                 </c:pt>
@@ -703,6 +725,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -733,9 +761,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>全国!$B$3:$B$27</c:f>
+              <c:f>全国!$B$3:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -810,16 +838,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全国!$D$3:$D$27</c:f>
+              <c:f>全国!$D$3:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>27</c:v>
                 </c:pt>
@@ -894,6 +928,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2277</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,9 +964,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>全国!$B$3:$B$27</c:f>
+              <c:f>全国!$B$3:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -1001,16 +1041,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全国!$E$3:$E$27</c:f>
+              <c:f>全国!$E$3:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>102</c:v>
                 </c:pt>
@@ -1109,9 +1155,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>全国!$B$3:$B$27</c:f>
+              <c:f>全国!$B$3:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -1186,16 +1232,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全国!$F$3:$F$27</c:f>
+              <c:f>全国!$F$3:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1267,6 +1319,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1393,9 +1451,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>全国!$B$3:$B$27</c:f>
+              <c:f>全国!$B$3:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -1470,16 +1528,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全国!$C$3:$C$27</c:f>
+              <c:f>全国!$C$3:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>77</c:v>
                 </c:pt>
@@ -1554,6 +1618,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1602,9 +1672,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>全国!$B$3:$B$27</c:f>
+              <c:f>全国!$B$3:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -1679,16 +1749,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全国!$D$3:$D$27</c:f>
+              <c:f>全国!$D$3:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>27</c:v>
                 </c:pt>
@@ -1763,6 +1839,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2277</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1790,9 +1872,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>全国!$B$3:$B$27</c:f>
+              <c:f>全国!$B$3:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -1867,16 +1949,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全国!$E$3:$E$27</c:f>
+              <c:f>全国!$E$3:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>102</c:v>
                 </c:pt>
@@ -1972,9 +2060,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>全国!$B$3:$B$27</c:f>
+              <c:f>全国!$B$3:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -2049,16 +2137,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>全国!$F$3:$F$27</c:f>
+              <c:f>全国!$F$3:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2130,6 +2224,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2909,15 +3009,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="4"/>
             <c:forward val="0.5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.38108943961976938"/>
-                  <c:y val="-0.20552111667859699"/>
+                  <c:x val="5.7356345755806948E-2"/>
+                  <c:y val="0.14032956565913132"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2952,9 +3052,9 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>全国!$B$3:$B$27</c:f>
+              <c:f>全国!$B$3:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.21</c:v>
                 </c:pt>
@@ -3029,16 +3129,22 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>全国!$D$3:$D$27</c:f>
+              <c:f>全国!$D$3:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>27</c:v>
                 </c:pt>
@@ -3113,6 +3219,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2277</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3914,7 +4026,7 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>374649</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3950,7 +4062,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4055,14 +4167,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>116681</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:colOff>300831</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>82551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>338931</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:colOff>523081</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>31751</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4412,10 +4524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4857,7 +4969,7 @@
         <v>3238.0770937949856</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4892,7 +5004,7 @@
         <v>3573.7464040261343</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4927,7 +5039,7 @@
         <v>3971.4929255552101</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4962,7 +5074,7 @@
         <v>4288.5566417681603</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4997,7 +5109,7 @@
         <v>4459.9447165272968</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5032,7 +5144,7 @@
         <v>4646.7044082430639</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5067,7 +5179,7 @@
         <v>4661.7841701332309</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5102,7 +5214,7 @@
         <v>4743.3736116983682</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5130,7 +5242,7 @@
         <v>1717.1899999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5158,7 +5270,7 @@
         <v>1181.0798000000009</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5183,7 +5295,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5206,19 +5318,69 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>2009</v>
+      </c>
+      <c r="D28">
+        <v>1918</v>
+      </c>
+      <c r="F28">
+        <v>142</v>
+      </c>
+      <c r="G28">
+        <v>1323</v>
+      </c>
+      <c r="I28">
+        <f>-28.764*A28*A28+852.19*A28-1462.7</f>
+        <v>1249.7760000000023</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>2048</v>
+      </c>
+      <c r="D29">
+        <v>1563</v>
+      </c>
+      <c r="F29">
+        <v>105</v>
+      </c>
+      <c r="G29">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30">
+        <f>0.088*POWER(A30,4)-4.5728*POWER(A30,3)+48.138*POWER(A30,2)+395.16*A30-787.4</f>
+        <v>1724.8943999999969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -5241,6 +5403,9 @@
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5252,10 +5417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4295A400-D455-4BFF-9D63-F95B22A15BCF}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5737,6 +5902,42 @@
         <v>912</v>
       </c>
     </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="C29">
+        <v>1933</v>
+      </c>
+      <c r="D29">
+        <v>909</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
